--- a/Results/Random Forest/Adding financial ratios.xlsx
+++ b/Results/Random Forest/Adding financial ratios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2DFDF1-3D04-4BBA-A21F-FEFA095A19F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31282294-9AA5-4B40-B07E-657DEE974C7D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
@@ -490,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -696,6 +696,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -742,7 +797,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,9 +816,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,6 +855,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1941,7 +2011,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,20 +2024,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -2110,270 +2180,272 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>200</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>98</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>7</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0.33151124021578898</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>0.32612125309894002</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>0.33405716738811497</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>0.332504561227775</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>2.9859707077571499E-3</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>0.33104855548265499</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>2</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>300</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>98</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>6</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>0.33117138646022598</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>0.32670795010213499</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>0.33390691517905002</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>0.33115229134618801</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>2.5808303635945599E-3</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>0.33073463577189999</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>200</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>98</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>6</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.33125366684315199</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>0.326836737249178</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>0.33337030014667401</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>0.33024362322469802</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>2.35955526067738E-3</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>0.33042608186592498</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>4</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>100</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>98</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>7</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>0.33000515146745202</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>0.32586367880485501</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>0.33307337316209301</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>0.33100203913712301</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>2.62479081881374E-3</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="16">
         <v>0.329986060642881</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>5</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>100</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>98</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>6</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>0.32940056952334601</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>0.32577066586532399</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>0.33269058777233201</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>0.33012914535112498</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>2.47454406515615E-3</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>0.32949774212803101</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>100</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>98</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>3</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.32941487915515899</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.32485126873226899</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>0.33181411655278498</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <v>0.330290129860837</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <v>2.5948740283081501E-3</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <v>0.32909259857526202</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/Random Forest/Adding financial ratios.xlsx
+++ b/Results/Random Forest/Adding financial ratios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31282294-9AA5-4B40-B07E-657DEE974C7D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DE79E-8EAB-4E0B-B65D-2BD1F398F111}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>n_estimators</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Filled in blanks</t>
+  </si>
+  <si>
+    <t>Extended search</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,6 +857,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -866,13 +887,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -921,7 +948,470 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1668,44 +2158,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:L7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:L7" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="C4:L7" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C5:L7">
     <sortCondition descending="1" ref="L4:L7"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B1ADACD-7250-4F83-A4D5-12E61CF1AEF9}" name="Table2" displayName="Table2" ref="C11:L17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B1ADACD-7250-4F83-A4D5-12E61CF1AEF9}" name="Table2" displayName="Table2" ref="C11:L17" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25" dataCellStyle="Percent">
   <autoFilter ref="C11:L17" xr:uid="{7E6192DA-F047-4D5F-8156-E3941516DDA9}"/>
   <sortState ref="C12:L17">
     <sortCondition descending="1" ref="L11:L17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4227B6EC-611E-41C3-96C1-BF162CFA7A3F}" name="n_estimators" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1A1AC312-FB63-4209-8007-BB913315C76A}" name="min_samples_leaf" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2CAB03BA-BAD2-48CF-93FA-8EB29E4BC56E}" name="max_features" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0EB7EF89-0697-40F1-9F95-0391E8D957DF}" name="criterion" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{78BF8FE0-F451-42BE-8FAB-0690595143A5}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{89C121D3-B803-4A74-9F8B-0A3100E9B96F}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{81BAA7D7-7FF5-46F0-9157-37F8FA6AEA24}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{F1CF76FC-F40B-4BD3-B101-1756A2AB786F}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{A5A6E5C9-A2FB-41C9-9CCC-01DD92FDC594}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{70027393-B55D-48F4-8CB3-451249D56B63}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{4227B6EC-611E-41C3-96C1-BF162CFA7A3F}" name="n_estimators" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{1A1AC312-FB63-4209-8007-BB913315C76A}" name="min_samples_leaf" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{2CAB03BA-BAD2-48CF-93FA-8EB29E4BC56E}" name="max_features" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{0EB7EF89-0697-40F1-9F95-0391E8D957DF}" name="criterion" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{78BF8FE0-F451-42BE-8FAB-0690595143A5}" name="Fold 1" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{89C121D3-B803-4A74-9F8B-0A3100E9B96F}" name="Fold 2" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{81BAA7D7-7FF5-46F0-9157-37F8FA6AEA24}" name="Fold 3" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{F1CF76FC-F40B-4BD3-B101-1756A2AB786F}" name="Fold 4" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{A5A6E5C9-A2FB-41C9-9CCC-01DD92FDC594}" name="Std" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{70027393-B55D-48F4-8CB3-451249D56B63}" name="Average" dataDxfId="15" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0A93BA5-0F5A-4294-8A98-1CDBCF353BEF}" name="Table22" displayName="Table22" ref="C21:L47" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11" dataCellStyle="Percent">
+  <autoFilter ref="C21:L47" xr:uid="{BB32175F-D8F1-405A-98E1-328A9121FC9B}"/>
+  <sortState ref="C22:L47">
+    <sortCondition descending="1" ref="L21:L47"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{35D0EAC9-EDFC-45CD-A06F-556218450CDA}" name="n_estimators" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A9B0C17C-ECA6-40B5-8D7D-C472C4525810}" name="min_samples_leaf" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{EF8698EC-1354-445E-B32D-081A6A0F6E3A}" name="max_features" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D759A229-E45C-4ED4-8F00-6D1439F327BC}" name="criterion" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8908EBDC-F70D-4823-B858-FE10E5A917C5}" name="Fold 1" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{7EC306FE-E0E1-48E8-9D3B-14857635FF30}" name="Fold 2" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{11CAB750-F836-42B1-B4E3-3863EFFE6C1A}" name="Fold 3" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{1A85B8EF-7469-4A12-9524-77F10A2440EB}" name="Fold 4" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{AF896ECE-77F0-4D75-AD44-DD2D4AEC18B3}" name="Std" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{B05DDC98-B513-47AB-AE6A-9E8A50072148}" name="Average" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2008,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F8B0E-17AA-4631-8565-91D998A20F4E}">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,20 +2536,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -2180,20 +2692,20 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
@@ -2440,18 +2952,982 @@
         <v>0.32909259857526202</v>
       </c>
     </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>650</v>
+      </c>
+      <c r="D22" s="14">
+        <v>100</v>
+      </c>
+      <c r="E22" s="14">
+        <v>9</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.33167580098164001</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.32808167967059099</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.33524845275998999</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.33261546166779898</v>
+      </c>
+      <c r="K22" s="16">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.33190534493968898</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21">
+        <v>758</v>
+      </c>
+      <c r="D23" s="14">
+        <v>100</v>
+      </c>
+      <c r="E23" s="14">
+        <v>11</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.33186182619521198</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.32842511206270503</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.33468679569276999</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.33220047937609498</v>
+      </c>
+      <c r="K23" s="16">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0.33179355044122999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21">
+        <v>727</v>
+      </c>
+      <c r="D24" s="14">
+        <v>100</v>
+      </c>
+      <c r="E24" s="14">
+        <v>11</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.33172946210094001</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.32817111518936998</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.33471541516116299</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0.33222552141093897</v>
+      </c>
+      <c r="K24" s="16">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0.33171037533437697</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="21">
+        <v>890</v>
+      </c>
+      <c r="D25" s="14">
+        <v>100</v>
+      </c>
+      <c r="E25" s="14">
+        <v>11</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.33136456648970403</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.32822477650063803</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.33483347046828599</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0.33237935105355398</v>
+      </c>
+      <c r="K25" s="16">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0.33170053741851202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="21">
+        <v>602</v>
+      </c>
+      <c r="D26" s="14">
+        <v>100</v>
+      </c>
+      <c r="E26" s="14">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.33164360431006101</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.328092411932844</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.33440775587593402</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.33251529352842202</v>
+      </c>
+      <c r="K26" s="16">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0.33166476317900601</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>6</v>
+      </c>
+      <c r="C27" s="22">
+        <v>570</v>
+      </c>
+      <c r="D27" s="32">
+        <v>100</v>
+      </c>
+      <c r="E27" s="32">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.331550591703275</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0.328174692610121</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0.33438629127463898</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0.33235073158515999</v>
+      </c>
+      <c r="K27" s="19">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0.33161557359968402</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>7</v>
+      </c>
+      <c r="C28" s="22">
+        <v>850</v>
+      </c>
+      <c r="D28" s="18">
+        <v>100</v>
+      </c>
+      <c r="E28" s="18">
+        <v>15</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.33138603093742303</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.32752717945415699</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0.33453296605015498</v>
+      </c>
+      <c r="J28" s="19">
+        <v>0.33293027582012602</v>
+      </c>
+      <c r="K28" s="19">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L28" s="31">
+        <v>0.33159410905598002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="21">
+        <v>973</v>
+      </c>
+      <c r="D29" s="14">
+        <v>100</v>
+      </c>
+      <c r="E29" s="14">
+        <v>13</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.33128944092268497</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.32793142799904101</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.33470110542696602</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.33244374485743899</v>
+      </c>
+      <c r="K29" s="16">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="L29" s="30">
+        <v>0.331591425988017</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>9</v>
+      </c>
+      <c r="C30" s="21">
+        <v>509</v>
+      </c>
+      <c r="D30" s="6">
+        <v>100</v>
+      </c>
+      <c r="E30" s="6">
+        <v>11</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.331997767697437</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.32831063459866699</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0.334250348799771</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0.33174256788180101</v>
+      </c>
+      <c r="K30" s="16">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="L30" s="34">
+        <v>0.331575327580239</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
+      <c r="C31" s="21">
+        <v>599</v>
+      </c>
+      <c r="D31" s="6">
+        <v>100</v>
+      </c>
+      <c r="E31" s="6">
+        <v>13</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.33142895983286302</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.32794216026129402</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0.33465459879082698</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0.33223625371158699</v>
+      </c>
+      <c r="K31" s="16">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="L31" s="34">
+        <v>0.33156548966437499</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>11</v>
+      </c>
+      <c r="C32" s="21">
+        <v>922</v>
+      </c>
+      <c r="D32" s="14">
+        <v>100</v>
+      </c>
+      <c r="E32" s="14">
+        <v>15</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.33140034056923701</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.32789565379152902</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0.33426465853396697</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0.33245447715808601</v>
+      </c>
+      <c r="K32" s="16">
+        <v>2.32E-3</v>
+      </c>
+      <c r="L32" s="30">
+        <v>0.33150377910122503</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>12</v>
+      </c>
+      <c r="C33" s="21">
+        <v>816</v>
+      </c>
+      <c r="D33" s="14">
+        <v>100</v>
+      </c>
+      <c r="E33" s="14">
+        <v>17</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.33146115650444302</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.32773466985772598</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0.33393911208099297</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.33278717847815897</v>
+      </c>
+      <c r="K33" s="16">
+        <v>2.33E-3</v>
+      </c>
+      <c r="L33" s="30">
+        <v>0.33148052584554599</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>13</v>
+      </c>
+      <c r="C34" s="21">
+        <v>717</v>
+      </c>
+      <c r="D34" s="14">
+        <v>100</v>
+      </c>
+      <c r="E34" s="14">
+        <v>14</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.331539859479415</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.32743058909387501</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0.33465102135727798</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0.33228276034772602</v>
+      </c>
+      <c r="K34" s="16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L34" s="30">
+        <v>0.33147605406560798</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>14</v>
+      </c>
+      <c r="C35" s="21">
+        <v>863</v>
+      </c>
+      <c r="D35" s="14">
+        <v>100</v>
+      </c>
+      <c r="E35" s="14">
+        <v>17</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.331242934619292</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0.32786703442551901</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0.33379243730547697</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0.33293027582012602</v>
+      </c>
+      <c r="K35" s="16">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="L35" s="30">
+        <v>0.331458166945854</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>15</v>
+      </c>
+      <c r="C36" s="21">
+        <v>865</v>
+      </c>
+      <c r="D36" s="14">
+        <v>100</v>
+      </c>
+      <c r="E36" s="14">
+        <v>14</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.33180101026000602</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0.32736261809960199</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0.33459020498694197</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0.332032339999284</v>
+      </c>
+      <c r="K36" s="16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="L36" s="30">
+        <v>0.33144654031801501</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>16</v>
+      </c>
+      <c r="C37" s="21">
+        <v>829</v>
+      </c>
+      <c r="D37" s="6">
+        <v>100</v>
+      </c>
+      <c r="E37" s="6">
+        <v>12</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.33139676316128303</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.32782768279725599</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0.33477623153149899</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0.33178191965084203</v>
+      </c>
+      <c r="K37" s="16">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="L37" s="34">
+        <v>0.33144564596202702</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>17</v>
+      </c>
+      <c r="C38" s="22">
+        <v>904</v>
+      </c>
+      <c r="D38" s="18">
+        <v>100</v>
+      </c>
+      <c r="E38" s="18">
+        <v>7</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0.331486198360116</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0.32736261809960199</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0.33515186205416198</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0.33162809000822802</v>
+      </c>
+      <c r="K38" s="19">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="L38" s="31">
+        <v>0.33140718865455698</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>18</v>
+      </c>
+      <c r="C39" s="21">
+        <v>758</v>
+      </c>
+      <c r="D39" s="14">
+        <v>100</v>
+      </c>
+      <c r="E39" s="14">
+        <v>12</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.33126797647496498</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.32755222139941498</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0.334633134189532</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0.33214324043930799</v>
+      </c>
+      <c r="K39" s="16">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="L39" s="30">
+        <v>0.33139913945066801</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>19</v>
+      </c>
+      <c r="C40" s="21">
+        <v>597</v>
+      </c>
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.331146344604553</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.32767743112570602</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0.33479769613279398</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0.33195363646120202</v>
+      </c>
+      <c r="K40" s="16">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="L40" s="34">
+        <v>0.33139377331474201</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>20</v>
+      </c>
+      <c r="C41" s="21">
+        <v>735</v>
+      </c>
+      <c r="D41" s="14">
+        <v>100</v>
+      </c>
+      <c r="E41" s="14">
+        <v>6</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0.33194768398609098</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.32712650833002399</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0.33443995277787703</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0.33196079132830097</v>
+      </c>
+      <c r="K41" s="16">
+        <v>2.65E-3</v>
+      </c>
+      <c r="L41" s="30">
+        <v>0.331368731347087</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>21</v>
+      </c>
+      <c r="C42" s="21">
+        <v>693</v>
+      </c>
+      <c r="D42" s="6">
+        <v>100</v>
+      </c>
+      <c r="E42" s="6">
+        <v>17</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0.33136098908174999</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0.32774897954073001</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0.33394268951454198</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0.33235430901870999</v>
+      </c>
+      <c r="K42" s="16">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="L42" s="34">
+        <v>0.33135173858332201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>22</v>
+      </c>
+      <c r="C43" s="21">
+        <v>644</v>
+      </c>
+      <c r="D43" s="14">
+        <v>100</v>
+      </c>
+      <c r="E43" s="14">
+        <v>6</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.33177596840433199</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0.32748782782589397</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0.33406432225521399</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0.332060959467677</v>
+      </c>
+      <c r="K43" s="16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="L43" s="30">
+        <v>0.331347266803383</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>23</v>
+      </c>
+      <c r="C44" s="21">
+        <v>546</v>
+      </c>
+      <c r="D44" s="14">
+        <v>100</v>
+      </c>
+      <c r="E44" s="14">
+        <v>16</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0.330359314854828</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0.32759872786917998</v>
+      </c>
+      <c r="I44" s="16">
+        <v>0.33474761206310499</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0.33255464529746298</v>
+      </c>
+      <c r="K44" s="16">
+        <v>2.65E-3</v>
+      </c>
+      <c r="L44" s="30">
+        <v>0.331315069987827</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>24</v>
+      </c>
+      <c r="C45" s="21">
+        <v>531</v>
+      </c>
+      <c r="D45" s="14">
+        <v>100</v>
+      </c>
+      <c r="E45" s="14">
+        <v>8</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.331114147932973</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0.32730537936758303</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0.33429327800236103</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0.332329266983865</v>
+      </c>
+      <c r="K45" s="16">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="L45" s="30">
+        <v>0.33126051427258002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>25</v>
+      </c>
+      <c r="C46" s="21">
+        <v>647</v>
+      </c>
+      <c r="D46" s="14">
+        <v>100</v>
+      </c>
+      <c r="E46" s="14">
+        <v>16</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.33038793411845502</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0.32757726334467302</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0.33495510320895699</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0.33206811433477601</v>
+      </c>
+      <c r="K46" s="16">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="L46" s="30">
+        <v>0.33124709893276499</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>26</v>
+      </c>
+      <c r="C47" s="21">
+        <v>682</v>
+      </c>
+      <c r="D47" s="14">
+        <v>100</v>
+      </c>
+      <c r="E47" s="14">
+        <v>16</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0.33009816407423798</v>
+      </c>
+      <c r="H47" s="16">
+        <v>0.327473518142889</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0.33494437090830997</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0.33225414087933303</v>
+      </c>
+      <c r="K47" s="16">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="L47" s="30">
+        <v>0.33119254321751701</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="G20:L20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Results/Random Forest/Adding financial ratios.xlsx
+++ b/Results/Random Forest/Adding financial ratios.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DE79E-8EAB-4E0B-B65D-2BD1F398F111}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5300C0-6CE1-4161-97B2-E228D75161AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Random Forest - Results" sheetId="8" r:id="rId1"/>
-    <sheet name="Believed Significant Features" sheetId="12" r:id="rId2"/>
+    <sheet name="Random Forest 4 class - Results" sheetId="8" r:id="rId1"/>
+    <sheet name="Random Forest 2 class - Results" sheetId="13" r:id="rId2"/>
+    <sheet name="Believed Significant Features" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
   <si>
     <t>n_estimators</t>
   </si>
@@ -866,6 +867,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,21 +901,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,31 +949,182 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="55">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1379,6 +1531,31 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2158,66 +2335,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:L7" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E18C7944-A9AF-4205-8954-CCCC9DD14997}" name="Table6" displayName="Table6" ref="C4:L7" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="C4:L7" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C5:L7">
     <sortCondition descending="1" ref="L4:L7"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{49B14BD7-2E6D-41D3-8148-07CBCCF41661}" name="n_estimators" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{6AD65F4B-56AC-401B-96C2-D9FBBF336CA2}" name="min_samples_leaf" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{5AD3BCD7-CBBF-4C9B-B4A0-A4E5FD59C597}" name="max_features" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{2C4BE53E-053D-4331-9993-99B603F00415}" name="criterion" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{3027404F-500A-4ED4-8792-71B2DD51C51C}" name="Fold 1" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{2638E79C-613B-4BB5-A3C7-19FB5D68E54D}" name="Fold 2" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{2416ADE1-C181-43AC-ABB9-DF6F16D06778}" name="Fold 3" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{019E99C1-CAFC-44E4-B749-05B2ED48AFEE}" name="Fold 4" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{0A55A0F3-2B11-400E-86C2-773621815A5D}" name="Std" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{A95CAC43-9049-472B-8570-A7BCFD916B3E}" name="Average" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B1ADACD-7250-4F83-A4D5-12E61CF1AEF9}" name="Table2" displayName="Table2" ref="C11:L17" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B1ADACD-7250-4F83-A4D5-12E61CF1AEF9}" name="Table2" displayName="Table2" ref="C11:L17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37" dataCellStyle="Percent">
   <autoFilter ref="C11:L17" xr:uid="{7E6192DA-F047-4D5F-8156-E3941516DDA9}"/>
   <sortState ref="C12:L17">
     <sortCondition descending="1" ref="L11:L17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4227B6EC-611E-41C3-96C1-BF162CFA7A3F}" name="n_estimators" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1A1AC312-FB63-4209-8007-BB913315C76A}" name="min_samples_leaf" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{2CAB03BA-BAD2-48CF-93FA-8EB29E4BC56E}" name="max_features" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{0EB7EF89-0697-40F1-9F95-0391E8D957DF}" name="criterion" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{78BF8FE0-F451-42BE-8FAB-0690595143A5}" name="Fold 1" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{89C121D3-B803-4A74-9F8B-0A3100E9B96F}" name="Fold 2" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{81BAA7D7-7FF5-46F0-9157-37F8FA6AEA24}" name="Fold 3" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{F1CF76FC-F40B-4BD3-B101-1756A2AB786F}" name="Fold 4" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{A5A6E5C9-A2FB-41C9-9CCC-01DD92FDC594}" name="Std" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{70027393-B55D-48F4-8CB3-451249D56B63}" name="Average" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{4227B6EC-611E-41C3-96C1-BF162CFA7A3F}" name="n_estimators" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1A1AC312-FB63-4209-8007-BB913315C76A}" name="min_samples_leaf" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{2CAB03BA-BAD2-48CF-93FA-8EB29E4BC56E}" name="max_features" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{0EB7EF89-0697-40F1-9F95-0391E8D957DF}" name="criterion" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{78BF8FE0-F451-42BE-8FAB-0690595143A5}" name="Fold 1" dataDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{89C121D3-B803-4A74-9F8B-0A3100E9B96F}" name="Fold 2" dataDxfId="31" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{81BAA7D7-7FF5-46F0-9157-37F8FA6AEA24}" name="Fold 3" dataDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{F1CF76FC-F40B-4BD3-B101-1756A2AB786F}" name="Fold 4" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{A5A6E5C9-A2FB-41C9-9CCC-01DD92FDC594}" name="Std" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{70027393-B55D-48F4-8CB3-451249D56B63}" name="Average" dataDxfId="27" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0A93BA5-0F5A-4294-8A98-1CDBCF353BEF}" name="Table22" displayName="Table22" ref="C21:L47" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0A93BA5-0F5A-4294-8A98-1CDBCF353BEF}" name="Table22" displayName="Table22" ref="C21:L47" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22" dataCellStyle="Percent">
   <autoFilter ref="C21:L47" xr:uid="{BB32175F-D8F1-405A-98E1-328A9121FC9B}"/>
   <sortState ref="C22:L47">
     <sortCondition descending="1" ref="L21:L47"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{35D0EAC9-EDFC-45CD-A06F-556218450CDA}" name="n_estimators" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A9B0C17C-ECA6-40B5-8D7D-C472C4525810}" name="min_samples_leaf" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EF8698EC-1354-445E-B32D-081A6A0F6E3A}" name="max_features" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D759A229-E45C-4ED4-8F00-6D1439F327BC}" name="criterion" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{8908EBDC-F70D-4823-B858-FE10E5A917C5}" name="Fold 1" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{7EC306FE-E0E1-48E8-9D3B-14857635FF30}" name="Fold 2" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{11CAB750-F836-42B1-B4E3-3863EFFE6C1A}" name="Fold 3" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{1A85B8EF-7469-4A12-9524-77F10A2440EB}" name="Fold 4" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{AF896ECE-77F0-4D75-AD44-DD2D4AEC18B3}" name="Std" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{B05DDC98-B513-47AB-AE6A-9E8A50072148}" name="Average" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{35D0EAC9-EDFC-45CD-A06F-556218450CDA}" name="n_estimators" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A9B0C17C-ECA6-40B5-8D7D-C472C4525810}" name="min_samples_leaf" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{EF8698EC-1354-445E-B32D-081A6A0F6E3A}" name="max_features" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D759A229-E45C-4ED4-8F00-6D1439F327BC}" name="criterion" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{8908EBDC-F70D-4823-B858-FE10E5A917C5}" name="Fold 1" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{7EC306FE-E0E1-48E8-9D3B-14857635FF30}" name="Fold 2" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{11CAB750-F836-42B1-B4E3-3863EFFE6C1A}" name="Fold 3" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{1A85B8EF-7469-4A12-9524-77F10A2440EB}" name="Fold 4" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{AF896ECE-77F0-4D75-AD44-DD2D4AEC18B3}" name="Std" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{B05DDC98-B513-47AB-AE6A-9E8A50072148}" name="Average" dataDxfId="12" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67694E1E-3AF7-403B-B2AE-72453C90E3CB}" name="Table64" displayName="Table64" ref="C4:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="C4:J44" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
+  <sortState ref="C5:J44">
+    <sortCondition descending="1" ref="J4:J44"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="2" xr3:uid="{A06119DD-2CC2-4FB9-BDA3-4BE23BDF1F72}" name="max_features" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{105A6CA8-6EA9-4685-9DBA-2FDFE9FEB5E7}" name="n_estimators" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B7BD8BD2-18E0-420D-95E9-930669A9FC62}" name="Fold 1" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{E868A3A7-2AB4-47E7-A85D-4321CEF742B0}" name="Fold 2" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{168ECA12-F912-47A3-9483-A162740BBBB4}" name="Fold 3" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{741312B4-FF49-484F-9985-714EAE692C8B}" name="Fold 4" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{60A6B843-A4E7-4B7C-9DA1-3073BD4000E2}" name="Std" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D332C2B8-CD0C-4C99-9D8F-7DF1C5AC0598}" name="Average" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2522,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5F8B0E-17AA-4631-8565-91D998A20F4E}">
   <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,20 +2733,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -2692,20 +2889,20 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
@@ -2953,20 +3150,20 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -3185,10 +3382,10 @@
       <c r="C27" s="22">
         <v>570</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="25">
         <v>100</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="25">
         <v>11</v>
       </c>
       <c r="F27" s="18" t="s">
@@ -3209,7 +3406,7 @@
       <c r="K27" s="19">
         <v>2.2399999999999998E-3</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="26">
         <v>0.33161557359968402</v>
       </c>
     </row>
@@ -3244,7 +3441,7 @@
       <c r="K28" s="19">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="24">
         <v>0.33159410905598002</v>
       </c>
     </row>
@@ -3279,7 +3476,7 @@
       <c r="K29" s="16">
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="23">
         <v>0.331591425988017</v>
       </c>
     </row>
@@ -3314,7 +3511,7 @@
       <c r="K30" s="16">
         <v>2.1199999999999999E-3</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="27">
         <v>0.331575327580239</v>
       </c>
     </row>
@@ -3349,7 +3546,7 @@
       <c r="K31" s="16">
         <v>2.4099999999999998E-3</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="27">
         <v>0.33156548966437499</v>
       </c>
     </row>
@@ -3384,7 +3581,7 @@
       <c r="K32" s="16">
         <v>2.32E-3</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="23">
         <v>0.33150377910122503</v>
       </c>
     </row>
@@ -3419,7 +3616,7 @@
       <c r="K33" s="16">
         <v>2.33E-3</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="23">
         <v>0.33148052584554599</v>
       </c>
     </row>
@@ -3454,7 +3651,7 @@
       <c r="K34" s="16">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="23">
         <v>0.33147605406560798</v>
       </c>
     </row>
@@ -3489,7 +3686,7 @@
       <c r="K35" s="16">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="23">
         <v>0.331458166945854</v>
       </c>
     </row>
@@ -3524,7 +3721,7 @@
       <c r="K36" s="16">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="23">
         <v>0.33144654031801501</v>
       </c>
     </row>
@@ -3559,7 +3756,7 @@
       <c r="K37" s="16">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="27">
         <v>0.33144564596202702</v>
       </c>
     </row>
@@ -3594,7 +3791,7 @@
       <c r="K38" s="19">
         <v>2.7599999999999999E-3</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="24">
         <v>0.33140718865455698</v>
       </c>
     </row>
@@ -3629,7 +3826,7 @@
       <c r="K39" s="16">
         <v>2.5400000000000002E-3</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="23">
         <v>0.33139913945066801</v>
       </c>
     </row>
@@ -3664,7 +3861,7 @@
       <c r="K40" s="16">
         <v>2.5400000000000002E-3</v>
       </c>
-      <c r="L40" s="34">
+      <c r="L40" s="27">
         <v>0.33139377331474201</v>
       </c>
     </row>
@@ -3699,7 +3896,7 @@
       <c r="K41" s="16">
         <v>2.65E-3</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="23">
         <v>0.331368731347087</v>
       </c>
     </row>
@@ -3734,7 +3931,7 @@
       <c r="K42" s="16">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="27">
         <v>0.33135173858332201</v>
       </c>
     </row>
@@ -3769,7 +3966,7 @@
       <c r="K43" s="16">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="23">
         <v>0.331347266803383</v>
       </c>
     </row>
@@ -3804,7 +4001,7 @@
       <c r="K44" s="16">
         <v>2.65E-3</v>
       </c>
-      <c r="L44" s="30">
+      <c r="L44" s="23">
         <v>0.331315069987827</v>
       </c>
     </row>
@@ -3839,7 +4036,7 @@
       <c r="K45" s="16">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="23">
         <v>0.33126051427258002</v>
       </c>
     </row>
@@ -3874,7 +4071,7 @@
       <c r="K46" s="16">
         <v>2.6800000000000001E-3</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="23">
         <v>0.33124709893276499</v>
       </c>
     </row>
@@ -3909,7 +4106,7 @@
       <c r="K47" s="16">
         <v>2.7499999999999998E-3</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="23">
         <v>0.33119254321751701</v>
       </c>
     </row>
@@ -3933,6 +4130,1239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B8ADE4-C68E-4015-AFD3-903A6BDB24D6}">
+  <dimension ref="B2:J44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="10" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>894</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.52645762300323795</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.52600962344097801</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.52923795616443903</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.52744614563847203</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.24E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.52728783679108604</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>878</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.52577023436190795</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.526218233924168</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.52899172739739597</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.528106180042338</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.32E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.52727159250437305</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>846</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.52661151598264</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.52586940983752295</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.52930293320018695</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.52727173240221703</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.52726389784224503</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>769</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.52567789857426706</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.52649524128709202</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.52888913207779398</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.52774367410031797</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.52720148558276803</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>892</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.52598568453307104</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.52586598999353595</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.528673681906631</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.52813353898135795</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.52716472219704802</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>616</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.52613957751247298</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.525821532021709</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.52903276552523604</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.52766501715063396</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.52716472219704802</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>600</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.52612247829254</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.52597542500111105</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.52823252203234405</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.52790098799968499</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.52705785188972298</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>922</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.525927547185297</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.52603356234888499</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.52797261388935401</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.52827375354383699</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.08E-3</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.52705186715251295</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>800</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.526320829243769</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.52580443280177502</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.52854030799114904</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.52723753372844195</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.52697577549369801</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>875</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.525725776390081</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.52579075342582804</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.52854030799114904</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.52781549131524597</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.24E-3</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.52696808083156998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>860</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.52566763904230596</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.52557872309865195</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.52877969707021899</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.52777787277409305</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.52695098158239795</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>852</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.52600620359699102</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.52551032621891702</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.528574506431016</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.52765133768112404</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.23E-3</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.52693559225814302</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>745</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.52620455454822102</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.52567789857426706</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.52779820184603099</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.52805146216429699</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.01E-3</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0.52693302737076797</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>457</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.52601646312895201</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.52577707404988105</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.52802391154915496</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.52783259065213395</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.52691250827176095</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>374</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.525729196234067</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.52564028029041299</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.52844797220350803</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.52768895622227696</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="J19" s="27">
+        <v>0.52687659984849999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>292</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.52591728765333701</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.525530845282838</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.52819148390450399</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.52719649531991097</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0.52670902720661505</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6">
+        <v>328</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.526019882972938</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.52536327292748897</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.52840009438769397</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.527035761553167</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.15E-3</v>
+      </c>
+      <c r="J21" s="27">
+        <v>0.52670475239432202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6">
+        <v>469</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.52561292153851902</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.52467588428615797</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.52791105669759297</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.52742904630158405</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.32E-3</v>
+      </c>
+      <c r="J22" s="27">
+        <v>0.52640722545872998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>733</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.52588650905745604</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.52507258618861796</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.52756907229892103</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.52706312049218695</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="J23" s="27">
+        <v>0.52639782087168496</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>898</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.52585231061758897</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.52512388384841802</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.5274972555752</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.52645438409898404</v>
+      </c>
+      <c r="I24" s="1">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0.52623195815471702</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6">
+        <v>217</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.52495973133705598</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.52502470837280402</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.52750751510715999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.52728883173910501</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="J25" s="27">
+        <v>0.52619519476899701</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>600</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.525527425438851</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.52469640335007905</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.52740833963154599</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.52701524234890096</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0.52616185123311199</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>497</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.52571209701413402</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.52481951773360103</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.52723734743220996</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.52675191256082998</v>
+      </c>
+      <c r="I27" s="1">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0.52613021762214396</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>338</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.52596516546915095</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.52449121271087595</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.52704583616895395</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.52699130327725896</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="J28" s="27">
+        <v>0.52612337792247499</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6">
+        <v>201</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.52461432709439704</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.52518544104017895</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.52824962125227803</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.52643728476209695</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.39E-3</v>
+      </c>
+      <c r="J29" s="27">
+        <v>0.526121667997558</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
+        <v>226</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.52587282968150995</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.52427576253971298</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.52784265981785905</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.52595508346186304</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0.52598658392909903</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6">
+        <v>265</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.52564370013439898</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.52393377814104103</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.52651918019499899</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.52649200264013696</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="J31" s="27">
+        <v>0.525647163833036</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>872</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.52439545707924795</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.52501102899685703</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.52676540896204305</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.52598244240088299</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0.52553858360079397</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6">
+        <v>223</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.52472034225798603</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.52374910656575802</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.527199729148356</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.52602348080941397</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.31E-3</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0.52542316366888298</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>220</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.52467930413014496</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.52379698438157196</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.52604724172483197</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.52615001590238297</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="J34" s="27">
+        <v>0.52516838485622097</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6">
+        <v>86</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.52354049608256803</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.52432706019951303</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.52650550081905201</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.52620131391304603</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0.52514359094492102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>164</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.52454935005865</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.52290440510103897</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.52704583616895395</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.52550708083540498</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J36" s="27">
+        <v>0.52500166717679397</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.52321903074781695</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.52375252640974501</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.52561292153851902</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.52563703579575105</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.09E-3</v>
+      </c>
+      <c r="J37" s="27">
+        <v>0.52455537677340502</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>798</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.52304119886050804</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.52263423742608806</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.52498025040097596</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.52469657226692701</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="J38" s="27">
+        <v>0.52383806327064097</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>706</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.52346525951486</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.52226489427552303</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.52487423523738796</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.52468631266479404</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="J39" s="27">
+        <v>0.52382267394638704</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>756</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.52326348871964401</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.52243246663087195</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.52477505976177297</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.52477522921661102</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.01E-3</v>
+      </c>
+      <c r="J40" s="27">
+        <v>0.52381155943442503</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>37</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>538</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.523472099202834</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.52263765727007505</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.52462116678237103</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.52430328751850996</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="J41" s="27">
+        <v>0.52375855176199204</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>660</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.52340712216708596</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.52245640553877903</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.52450489208682305</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.52442982261147897</v>
+      </c>
+      <c r="I42" s="1">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="J42" s="27">
+        <v>0.52369955935234802</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>39</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.52277103118555701</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.52093115512070298</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.52424156409984501</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.52281564520927803</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="J43" s="27">
+        <v>0.52268984868874402</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>40</v>
+      </c>
+      <c r="C44" s="6">
+        <v>7</v>
+      </c>
+      <c r="D44" s="6">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.52089011699286203</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.52046263649452296</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.52344132060695303</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.52297979884339996</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="J44" s="27">
+        <v>0.52194346646238698</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261FB40-C053-4933-B9D1-58028D6413F2}">
   <dimension ref="B2:D14"/>
   <sheetViews>

--- a/Results/Random Forest/Adding financial ratios.xlsx
+++ b/Results/Random Forest/Adding financial ratios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Every Day Files\Documents\Machine Learning\Predicting Stock Price Movement\PredictingClosingPriceTomorrow\Results\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5300C0-6CE1-4161-97B2-E228D75161AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7389D672-E8B5-4369-8629-D245A9F3F36C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="2" xr2:uid="{18D6EED5-EE2E-4B08-BE98-B89836E6EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Random Forest 4 class - Results" sheetId="8" r:id="rId1"/>
@@ -951,9 +951,6 @@
   </cellStyles>
   <dxfs count="55">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1095,16 +1092,19 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -2401,20 +2401,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67694E1E-3AF7-403B-B2AE-72453C90E3CB}" name="Table64" displayName="Table64" ref="C4:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67694E1E-3AF7-403B-B2AE-72453C90E3CB}" name="Table64" displayName="Table64" ref="C4:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="C4:J44" xr:uid="{37F69A45-C75B-4B0C-9F69-729A19E5D172}"/>
   <sortState ref="C5:J44">
     <sortCondition descending="1" ref="J4:J44"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{A06119DD-2CC2-4FB9-BDA3-4BE23BDF1F72}" name="max_features" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{105A6CA8-6EA9-4685-9DBA-2FDFE9FEB5E7}" name="n_estimators" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{B7BD8BD2-18E0-420D-95E9-930669A9FC62}" name="Fold 1" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{E868A3A7-2AB4-47E7-A85D-4321CEF742B0}" name="Fold 2" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{168ECA12-F912-47A3-9483-A162740BBBB4}" name="Fold 3" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{741312B4-FF49-484F-9985-714EAE692C8B}" name="Fold 4" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{60A6B843-A4E7-4B7C-9DA1-3073BD4000E2}" name="Std" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D332C2B8-CD0C-4C99-9D8F-7DF1C5AC0598}" name="Average" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{A06119DD-2CC2-4FB9-BDA3-4BE23BDF1F72}" name="max_features" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{105A6CA8-6EA9-4685-9DBA-2FDFE9FEB5E7}" name="n_estimators" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B7BD8BD2-18E0-420D-95E9-930669A9FC62}" name="Fold 1" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{E868A3A7-2AB4-47E7-A85D-4321CEF742B0}" name="Fold 2" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{168ECA12-F912-47A3-9483-A162740BBBB4}" name="Fold 3" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{741312B4-FF49-484F-9985-714EAE692C8B}" name="Fold 4" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{60A6B843-A4E7-4B7C-9DA1-3073BD4000E2}" name="Std" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D332C2B8-CD0C-4C99-9D8F-7DF1C5AC0598}" name="Average" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4133,7 +4133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B8ADE4-C68E-4015-AFD3-903A6BDB24D6}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5366,8 +5366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261FB40-C053-4933-B9D1-58028D6413F2}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
